--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H2">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.749486333333333</v>
+        <v>4.372354666666666</v>
       </c>
       <c r="N2">
-        <v>11.248459</v>
+        <v>13.117064</v>
       </c>
       <c r="O2">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="P2">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="Q2">
-        <v>82.40436713655278</v>
+        <v>44.16366351505867</v>
       </c>
       <c r="R2">
-        <v>741.639304228975</v>
+        <v>397.472971635528</v>
       </c>
       <c r="S2">
-        <v>0.04246846020427415</v>
+        <v>0.01606406004035058</v>
       </c>
       <c r="T2">
-        <v>0.04246846020427415</v>
+        <v>0.01606406004035058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H3">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.799665000000001</v>
       </c>
       <c r="O3">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="P3">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="Q3">
-        <v>64.46490362268055</v>
+        <v>29.62747182641167</v>
       </c>
       <c r="R3">
-        <v>580.184132604125</v>
+        <v>266.6472464377051</v>
       </c>
       <c r="S3">
-        <v>0.03322305951983682</v>
+        <v>0.01077667585482328</v>
       </c>
       <c r="T3">
-        <v>0.03322305951983682</v>
+        <v>0.01077667585482328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H4">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.73572533333333</v>
+        <v>71.62252933333333</v>
       </c>
       <c r="N4">
-        <v>86.207176</v>
+        <v>214.867588</v>
       </c>
       <c r="O4">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="P4">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="Q4">
-        <v>631.5396429777111</v>
+        <v>723.4347455134973</v>
       </c>
       <c r="R4">
-        <v>5683.8567867994</v>
+        <v>6510.912709621476</v>
       </c>
       <c r="S4">
-        <v>0.3254744515029888</v>
+        <v>0.2631416477313301</v>
       </c>
       <c r="T4">
-        <v>0.3254744515029888</v>
+        <v>0.2631416477313301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H5">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.50096466666667</v>
+        <v>11.66089366666667</v>
       </c>
       <c r="N5">
-        <v>37.502894</v>
+        <v>34.982681</v>
       </c>
       <c r="O5">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="P5">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="Q5">
-        <v>274.7400551363722</v>
+        <v>117.7827105622597</v>
       </c>
       <c r="R5">
-        <v>2472.66049622735</v>
+        <v>1060.044395060337</v>
       </c>
       <c r="S5">
-        <v>0.1415918537271738</v>
+        <v>0.04284220065987569</v>
       </c>
       <c r="T5">
-        <v>0.1415918537271738</v>
+        <v>0.04284220065987569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.749486333333333</v>
+        <v>4.372354666666666</v>
       </c>
       <c r="N6">
-        <v>11.248459</v>
+        <v>13.117064</v>
       </c>
       <c r="O6">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="P6">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="Q6">
-        <v>47.57489240419467</v>
+        <v>55.47808001602133</v>
       </c>
       <c r="R6">
-        <v>428.174031637752</v>
+        <v>499.302720144192</v>
       </c>
       <c r="S6">
-        <v>0.02451851151823174</v>
+        <v>0.02017955797523145</v>
       </c>
       <c r="T6">
-        <v>0.02451851151823174</v>
+        <v>0.02017955797523145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.799665000000001</v>
       </c>
       <c r="O7">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="P7">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="Q7">
         <v>37.21781939801333</v>
@@ -883,10 +883,10 @@
         <v>334.96037458212</v>
       </c>
       <c r="S7">
-        <v>0.01918082180493174</v>
+        <v>0.01353758356520294</v>
       </c>
       <c r="T7">
-        <v>0.01918082180493174</v>
+        <v>0.01353758356520294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.73572533333333</v>
+        <v>71.62252933333333</v>
       </c>
       <c r="N8">
-        <v>86.207176</v>
+        <v>214.867588</v>
       </c>
       <c r="O8">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="P8">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="Q8">
-        <v>364.6096876620587</v>
+        <v>908.7735822523626</v>
       </c>
       <c r="R8">
-        <v>3281.487188958528</v>
+        <v>8178.962240271265</v>
       </c>
       <c r="S8">
-        <v>0.1879076625260607</v>
+        <v>0.3305566664189598</v>
       </c>
       <c r="T8">
-        <v>0.1879076625260607</v>
+        <v>0.3305566664189598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.50096466666667</v>
+        <v>11.66089366666667</v>
       </c>
       <c r="N9">
-        <v>37.502894</v>
+        <v>34.982681</v>
       </c>
       <c r="O9">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="P9">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="Q9">
-        <v>158.6169400533813</v>
+        <v>147.9578033386853</v>
       </c>
       <c r="R9">
-        <v>1427.552460480432</v>
+        <v>1331.620230048168</v>
       </c>
       <c r="S9">
-        <v>0.08174587634679771</v>
+        <v>0.05381806777557294</v>
       </c>
       <c r="T9">
-        <v>0.08174587634679771</v>
+        <v>0.05381806777557294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H10">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.749486333333333</v>
+        <v>4.372354666666666</v>
       </c>
       <c r="N10">
-        <v>11.248459</v>
+        <v>13.117064</v>
       </c>
       <c r="O10">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="P10">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="Q10">
-        <v>14.31635620868733</v>
+        <v>20.64195779645956</v>
       </c>
       <c r="R10">
-        <v>128.847205878186</v>
+        <v>185.777620168136</v>
       </c>
       <c r="S10">
-        <v>0.007378172116913917</v>
+        <v>0.007508291273880491</v>
       </c>
       <c r="T10">
-        <v>0.007378172116913917</v>
+        <v>0.007508291273880489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H11">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.799665000000001</v>
       </c>
       <c r="O11">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="P11">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="Q11">
-        <v>11.19967976565667</v>
+        <v>13.84778739762056</v>
       </c>
       <c r="R11">
-        <v>100.79711789091</v>
+        <v>124.630086578585</v>
       </c>
       <c r="S11">
-        <v>0.005771941111327632</v>
+        <v>0.005036984490780221</v>
       </c>
       <c r="T11">
-        <v>0.005771941111327632</v>
+        <v>0.00503698449078022</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H12">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.73572533333333</v>
+        <v>71.62252933333333</v>
       </c>
       <c r="N12">
-        <v>86.207176</v>
+        <v>214.867588</v>
       </c>
       <c r="O12">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="P12">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="Q12">
-        <v>109.7192637107893</v>
+        <v>338.1311308173125</v>
       </c>
       <c r="R12">
-        <v>987.4733733971041</v>
+        <v>3043.180177355812</v>
       </c>
       <c r="S12">
-        <v>0.05654564614060385</v>
+        <v>0.1229915807394207</v>
       </c>
       <c r="T12">
-        <v>0.05654564614060385</v>
+        <v>0.1229915807394207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H13">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.50096466666667</v>
+        <v>11.66089366666667</v>
       </c>
       <c r="N13">
-        <v>37.502894</v>
+        <v>34.982681</v>
       </c>
       <c r="O13">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="P13">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="Q13">
-        <v>47.73140830763067</v>
+        <v>55.05126946159656</v>
       </c>
       <c r="R13">
-        <v>429.582674768676</v>
+        <v>495.461425154369</v>
       </c>
       <c r="S13">
-        <v>0.02459917459043752</v>
+        <v>0.02002431020304886</v>
       </c>
       <c r="T13">
-        <v>0.02459917459043752</v>
+        <v>0.02002431020304885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H14">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.749486333333333</v>
+        <v>4.372354666666666</v>
       </c>
       <c r="N14">
-        <v>11.248459</v>
+        <v>13.117064</v>
       </c>
       <c r="O14">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="P14">
-        <v>0.07824568942484071</v>
+        <v>0.04826584573009855</v>
       </c>
       <c r="Q14">
-        <v>7.529679709907889</v>
+        <v>12.40981231344178</v>
       </c>
       <c r="R14">
-        <v>67.76711738917099</v>
+        <v>111.688310820976</v>
       </c>
       <c r="S14">
-        <v>0.003880545585420909</v>
+        <v>0.004513936440636019</v>
       </c>
       <c r="T14">
-        <v>0.003880545585420909</v>
+        <v>0.004513936440636018</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H15">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.799665000000001</v>
       </c>
       <c r="O15">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="P15">
-        <v>0.06121157170352321</v>
+        <v>0.0323794466022692</v>
       </c>
       <c r="Q15">
-        <v>5.890465441042778</v>
+        <v>8.325200751567779</v>
       </c>
       <c r="R15">
-        <v>53.014188969385</v>
+        <v>74.92680676411001</v>
       </c>
       <c r="S15">
-        <v>0.003035749267427021</v>
+        <v>0.003028202691462765</v>
       </c>
       <c r="T15">
-        <v>0.003035749267427021</v>
+        <v>0.003028202691462765</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H16">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.73572533333333</v>
+        <v>71.62252933333333</v>
       </c>
       <c r="N16">
-        <v>86.207176</v>
+        <v>214.867588</v>
       </c>
       <c r="O16">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="P16">
-        <v>0.5996679117991702</v>
+        <v>0.7906316424777964</v>
       </c>
       <c r="Q16">
-        <v>57.70678667857155</v>
+        <v>203.2822618935102</v>
       </c>
       <c r="R16">
-        <v>519.3610801071439</v>
+        <v>1829.540357041592</v>
       </c>
       <c r="S16">
-        <v>0.02974015162951684</v>
+        <v>0.07394174758808575</v>
       </c>
       <c r="T16">
-        <v>0.02974015162951684</v>
+        <v>0.07394174758808573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H17">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.50096466666667</v>
+        <v>11.66089366666667</v>
       </c>
       <c r="N17">
-        <v>37.502894</v>
+        <v>34.982681</v>
       </c>
       <c r="O17">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="P17">
-        <v>0.2608748270724658</v>
+        <v>0.1287230651898359</v>
       </c>
       <c r="Q17">
-        <v>25.10430806696511</v>
+        <v>33.09646925798378</v>
       </c>
       <c r="R17">
-        <v>225.938772602686</v>
+        <v>297.868223321854</v>
       </c>
       <c r="S17">
-        <v>0.01293792240805681</v>
+        <v>0.01203848655133842</v>
       </c>
       <c r="T17">
-        <v>0.01293792240805681</v>
+        <v>0.01203848655133841</v>
       </c>
     </row>
   </sheetData>
